--- a/src/main/resources/TestData/FCCB_TBCL_data.xlsx
+++ b/src/main/resources/TestData/FCCB_TBCL_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liu-b\git\PageObjectModel\src\main\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE27409-5655-4650-A548-CBC1FAEA0D71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C09140A9-92AE-44A9-8943-F3FCB1FD0620}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13035" yWindow="6045" windowWidth="14415" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="75">
   <si>
     <t>fbbs</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,10 +78,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>HXXT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -98,10 +94,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FCCB_TB_JCX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>riskClass</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -154,10 +146,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0100000001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>htzyjjfs</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -170,26 +158,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>USA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>jw_Addr</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>美国黄河治理委员会</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>snbz</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1111</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sftkbd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -206,10 +182,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sfydyw</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -264,53 +236,10 @@
     <t>lxr_yx</t>
   </si>
   <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试团体</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>G6200019603</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>98767848</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19920201</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>投保人联系地址-新发地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>010-65625058-5058</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试联系人</t>
-  </si>
-  <si>
-    <t>局长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13587654325</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>abd@d234.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>测试用例</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -332,6 +261,58 @@
   </si>
   <si>
     <t>非车承保企财险-财产基本险-出单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xzsyfw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tqmc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qbrq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zbrq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lgbbz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yyzdbz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sfgxdm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cbdq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-06-20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-08-20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0021</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险类别信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -438,10 +419,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -723,10 +704,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33FB4AF2-2C99-459C-9147-AD7590C3225D}">
-  <dimension ref="A1:AT5"/>
+  <dimension ref="A1:BB5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="AS1" workbookViewId="0">
+      <selection activeCell="AU1" sqref="AU1:BB1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75"/>
@@ -754,100 +735,110 @@
     <col min="47" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:54">
+      <c r="A1" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="8"/>
+      <c r="AC1" s="8"/>
+      <c r="AD1" s="8"/>
+      <c r="AE1" s="8"/>
+      <c r="AF1" s="8"/>
+      <c r="AG1" s="7"/>
+      <c r="AH1" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI1" s="8"/>
+      <c r="AJ1" s="8"/>
+      <c r="AK1" s="8"/>
+      <c r="AL1" s="8"/>
+      <c r="AM1" s="8"/>
+      <c r="AN1" s="8"/>
+      <c r="AO1" s="8"/>
+      <c r="AP1" s="8"/>
+      <c r="AQ1" s="8"/>
+      <c r="AR1" s="8"/>
+      <c r="AS1" s="8"/>
+      <c r="AT1" s="8"/>
+      <c r="AU1" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
-      <c r="AA1" s="7"/>
-      <c r="AB1" s="7"/>
-      <c r="AC1" s="7"/>
-      <c r="AD1" s="7"/>
-      <c r="AE1" s="7"/>
-      <c r="AF1" s="7"/>
-      <c r="AG1" s="8"/>
-      <c r="AH1" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="AI1" s="7"/>
-      <c r="AJ1" s="7"/>
-      <c r="AK1" s="7"/>
-      <c r="AL1" s="7"/>
-      <c r="AM1" s="7"/>
-      <c r="AN1" s="7"/>
-      <c r="AO1" s="7"/>
-      <c r="AP1" s="7"/>
-      <c r="AQ1" s="7"/>
-      <c r="AR1" s="7"/>
-      <c r="AS1" s="7"/>
-      <c r="AT1" s="7"/>
+      <c r="AV1" s="8"/>
+      <c r="AW1" s="8"/>
+      <c r="AX1" s="8"/>
+      <c r="AY1" s="8"/>
+      <c r="AZ1" s="8"/>
+      <c r="BA1" s="8"/>
+      <c r="BB1" s="8"/>
     </row>
-    <row r="2" spans="1:46">
+    <row r="2" spans="1:54">
       <c r="A2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>26</v>
       </c>
       <c r="M2" s="5" t="s">
         <v>0</v>
@@ -871,105 +862,129 @@
         <v>6</v>
       </c>
       <c r="T2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="V2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="W2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="X2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="Y2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="W2" s="5" t="s">
+      <c r="Z2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="X2" s="5" t="s">
+      <c r="AA2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="Y2" s="5" t="s">
+      <c r="AC2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="Z2" s="5" t="s">
+      <c r="AE2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF2" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="AA2" s="5" t="s">
+      <c r="AG2" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="AB2" s="5" t="s">
+      <c r="AH2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="AC2" s="5" t="s">
+      <c r="AI2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AD2" s="5" t="s">
+      <c r="AJ2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AE2" s="5" t="s">
+      <c r="AL2" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AF2" s="5" t="s">
+      <c r="AM2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AG2" s="6" t="s">
+      <c r="AN2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="AH2" s="6" t="s">
+      <c r="AO2" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AI2" s="6" t="s">
+      <c r="AP2" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AJ2" s="6" t="s">
+      <c r="AQ2" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="AK2" s="6" t="s">
+      <c r="AR2" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="AL2" s="6" t="s">
+      <c r="AS2" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="AM2" s="6" t="s">
+      <c r="AT2" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AN2" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AO2" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AP2" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="AQ2" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR2" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS2" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="AT2" s="6" t="s">
+      <c r="AU2" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV2" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AW2" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AX2" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AY2" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AZ2" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="BA2" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="BB2" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:54">
+      <c r="A3" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="3" spans="1:46">
-      <c r="A3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>79</v>
-      </c>
       <c r="D3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -977,9 +992,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
-      <c r="M3" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="M3" s="3"/>
       <c r="N3" s="3" t="s">
         <v>10</v>
       </c>
@@ -995,90 +1008,66 @@
       <c r="R3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="3"/>
+      <c r="AF3" s="3"/>
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="3"/>
+      <c r="AI3" s="3"/>
+      <c r="AJ3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK3" s="3"/>
+      <c r="AL3" s="3"/>
+      <c r="AM3" s="3"/>
+      <c r="AN3" s="3"/>
+      <c r="AO3" s="3"/>
+      <c r="AP3" s="3"/>
+      <c r="AQ3" s="3"/>
+      <c r="AR3" s="3"/>
+      <c r="AS3" s="3"/>
+      <c r="AT3" s="4"/>
+      <c r="AU3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="T3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="X3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC3" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AF3" s="3"/>
-      <c r="AG3" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AH3" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AI3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AJ3" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK3" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AL3" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AM3" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AN3" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AO3" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="AP3" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="AQ3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AR3" s="3" t="s">
+      <c r="AV3" s="4"/>
+      <c r="AW3" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="AS3" s="3" t="s">
+      <c r="AX3" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="AT3" s="4" t="s">
+      <c r="AY3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AZ3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="BA3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="BB3" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:46">
+    <row r="4" spans="1:54">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1125,8 +1114,16 @@
       <c r="AR4" s="2"/>
       <c r="AS4" s="2"/>
       <c r="AT4" s="2"/>
+      <c r="AU4" s="4"/>
+      <c r="AV4" s="4"/>
+      <c r="AW4" s="4"/>
+      <c r="AX4" s="4"/>
+      <c r="AY4" s="4"/>
+      <c r="AZ4" s="4"/>
+      <c r="BA4" s="4"/>
+      <c r="BB4" s="4"/>
     </row>
-    <row r="5" spans="1:46">
+    <row r="5" spans="1:54">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1173,9 +1170,18 @@
       <c r="AR5" s="2"/>
       <c r="AS5" s="2"/>
       <c r="AT5" s="2"/>
+      <c r="AU5" s="4"/>
+      <c r="AV5" s="4"/>
+      <c r="AW5" s="4"/>
+      <c r="AX5" s="4"/>
+      <c r="AY5" s="4"/>
+      <c r="AZ5" s="4"/>
+      <c r="BA5" s="4"/>
+      <c r="BB5" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="AU1:BB1"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:L1"/>
     <mergeCell ref="M1:S1"/>
@@ -1183,10 +1189,7 @@
     <mergeCell ref="AH1:AT1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="AT3" r:id="rId1" xr:uid="{C93AC242-F319-40BD-81A1-F6156CA67102}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/TestData/FCCB_TBCL_data.xlsx
+++ b/src/main/resources/TestData/FCCB_TBCL_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liu-b\git\PageObjectModel\src\main\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C09140A9-92AE-44A9-8943-F3FCB1FD0620}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F77D74A0-75F9-45C9-9B48-6FC0AC4BA217}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13035" yWindow="6045" windowWidth="14415" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6945" yWindow="1515" windowWidth="14415" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="110">
   <si>
     <t>fbbs</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -296,14 +296,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020-06-20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2021-08-20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -313,6 +305,150 @@
   </si>
   <si>
     <t>风险类别信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jqbm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbdm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jzdj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bxcs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>险种信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>121121123123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CNY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>130302</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>065201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北戴河公园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>130000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>130300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCCB_TB_JCX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gdbs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>bdw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bdwmx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xbdm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jrbe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jzfs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bxje</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bffl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dqflbz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ysbf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碣石公园礁石群</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0101001</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>2000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-06-24</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -409,7 +545,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -420,6 +556,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -704,10 +843,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33FB4AF2-2C99-459C-9147-AD7590C3225D}">
-  <dimension ref="A1:BB5"/>
+  <dimension ref="A1:BT5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AS1" workbookViewId="0">
-      <selection activeCell="AU1" sqref="AU1:BB1"/>
+    <sheetView tabSelected="1" topLeftCell="AU1" workbookViewId="0">
+      <selection activeCell="AY3" sqref="AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75"/>
@@ -723,87 +862,109 @@
     <col min="9" max="9" width="11.625" style="1" customWidth="1"/>
     <col min="10" max="12" width="14.75" style="1" customWidth="1"/>
     <col min="13" max="13" width="18.25" style="1" customWidth="1"/>
-    <col min="14" max="15" width="8.75" style="1"/>
-    <col min="16" max="16" width="20.5" style="1" customWidth="1"/>
-    <col min="17" max="18" width="19.5" style="1" customWidth="1"/>
-    <col min="19" max="19" width="8.75" style="1"/>
-    <col min="20" max="20" width="12.625" style="1" customWidth="1"/>
-    <col min="21" max="23" width="8.75" style="1"/>
-    <col min="24" max="24" width="16.625" style="1" customWidth="1"/>
-    <col min="25" max="45" width="8.75" style="1"/>
-    <col min="46" max="46" width="15.5" style="1" customWidth="1"/>
-    <col min="47" max="16384" width="8.75" style="1"/>
+    <col min="14" max="16" width="8.75" style="1"/>
+    <col min="17" max="17" width="20.5" style="1" customWidth="1"/>
+    <col min="18" max="19" width="19.5" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.75" style="1"/>
+    <col min="21" max="21" width="12.625" style="1" customWidth="1"/>
+    <col min="22" max="24" width="8.75" style="1"/>
+    <col min="25" max="25" width="16.625" style="1" customWidth="1"/>
+    <col min="26" max="46" width="8.75" style="1"/>
+    <col min="47" max="47" width="15.5" style="1" customWidth="1"/>
+    <col min="48" max="62" width="8.75" style="1"/>
+    <col min="63" max="63" width="26.75" style="1" customWidth="1"/>
+    <col min="64" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:72">
+      <c r="A1" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8" t="s">
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="8" t="s">
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="8"/>
-      <c r="AA1" s="8"/>
-      <c r="AB1" s="8"/>
-      <c r="AC1" s="8"/>
-      <c r="AD1" s="8"/>
-      <c r="AE1" s="8"/>
-      <c r="AF1" s="8"/>
-      <c r="AG1" s="7"/>
-      <c r="AH1" s="8" t="s">
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="9"/>
+      <c r="AE1" s="9"/>
+      <c r="AF1" s="9"/>
+      <c r="AG1" s="9"/>
+      <c r="AH1" s="7"/>
+      <c r="AI1" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="AI1" s="8"/>
-      <c r="AJ1" s="8"/>
-      <c r="AK1" s="8"/>
-      <c r="AL1" s="8"/>
-      <c r="AM1" s="8"/>
-      <c r="AN1" s="8"/>
-      <c r="AO1" s="8"/>
-      <c r="AP1" s="8"/>
-      <c r="AQ1" s="8"/>
-      <c r="AR1" s="8"/>
-      <c r="AS1" s="8"/>
-      <c r="AT1" s="8"/>
-      <c r="AU1" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="AV1" s="8"/>
-      <c r="AW1" s="8"/>
-      <c r="AX1" s="8"/>
-      <c r="AY1" s="8"/>
-      <c r="AZ1" s="8"/>
-      <c r="BA1" s="8"/>
-      <c r="BB1" s="8"/>
+      <c r="AJ1" s="9"/>
+      <c r="AK1" s="9"/>
+      <c r="AL1" s="9"/>
+      <c r="AM1" s="9"/>
+      <c r="AN1" s="9"/>
+      <c r="AO1" s="9"/>
+      <c r="AP1" s="9"/>
+      <c r="AQ1" s="9"/>
+      <c r="AR1" s="9"/>
+      <c r="AS1" s="9"/>
+      <c r="AT1" s="9"/>
+      <c r="AU1" s="9"/>
+      <c r="AV1" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW1" s="9"/>
+      <c r="AX1" s="9"/>
+      <c r="AY1" s="9"/>
+      <c r="AZ1" s="9"/>
+      <c r="BA1" s="9"/>
+      <c r="BB1" s="9"/>
+      <c r="BC1" s="9"/>
+      <c r="BD1" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="BE1" s="9"/>
+      <c r="BF1" s="9"/>
+      <c r="BG1" s="9"/>
+      <c r="BH1" s="9"/>
+      <c r="BI1" s="9"/>
+      <c r="BJ1" s="9"/>
+      <c r="BK1" s="9"/>
+      <c r="BL1" s="9"/>
+      <c r="BM1" s="9"/>
+      <c r="BN1" s="9"/>
+      <c r="BO1" s="9"/>
+      <c r="BP1" s="9"/>
+      <c r="BQ1" s="9"/>
+      <c r="BR1" s="9"/>
+      <c r="BS1" s="9"/>
+      <c r="BT1" s="8"/>
     </row>
-    <row r="2" spans="1:54">
+    <row r="2" spans="1:72">
       <c r="A2" s="5" t="s">
         <v>13</v>
       </c>
@@ -850,126 +1011,180 @@
         <v>2</v>
       </c>
       <c r="P2" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="R2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="S2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="T2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="U2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="V2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="W2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="W2" s="5" t="s">
+      <c r="X2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="X2" s="5" t="s">
+      <c r="Y2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="Y2" s="5" t="s">
+      <c r="Z2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="Z2" s="5" t="s">
+      <c r="AA2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AA2" s="5" t="s">
+      <c r="AB2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="AB2" s="5" t="s">
+      <c r="AC2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="AC2" s="5" t="s">
+      <c r="AD2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="AD2" s="5" t="s">
+      <c r="AE2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="AE2" s="5" t="s">
+      <c r="AF2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="AF2" s="5" t="s">
+      <c r="AG2" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="AG2" s="6" t="s">
+      <c r="AH2" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="AH2" s="6" t="s">
+      <c r="AI2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="AI2" s="6" t="s">
+      <c r="AJ2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AJ2" s="6" t="s">
+      <c r="AK2" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AK2" s="6" t="s">
+      <c r="AL2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AL2" s="6" t="s">
+      <c r="AM2" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AM2" s="6" t="s">
+      <c r="AN2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AN2" s="6" t="s">
+      <c r="AO2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="AO2" s="6" t="s">
+      <c r="AP2" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AP2" s="6" t="s">
+      <c r="AQ2" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AQ2" s="6" t="s">
+      <c r="AR2" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="AR2" s="6" t="s">
+      <c r="AS2" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="AS2" s="6" t="s">
+      <c r="AT2" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="AT2" s="6" t="s">
+      <c r="AU2" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AU2" s="6" t="s">
+      <c r="AV2" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AV2" s="6" t="s">
+      <c r="AW2" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="AW2" s="6" t="s">
+      <c r="AX2" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="AX2" s="6" t="s">
+      <c r="AY2" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AY2" s="6" t="s">
+      <c r="AZ2" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="AZ2" s="6" t="s">
+      <c r="BA2" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="BA2" s="6" t="s">
+      <c r="BB2" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="BB2" s="6" t="s">
+      <c r="BC2" s="6" t="s">
         <v>69</v>
       </c>
+      <c r="BD2" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="BE2" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF2" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="BG2" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="BH2" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="BI2" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="BJ2" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="BK2" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="BL2" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="BM2" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="BN2" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="BO2" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="BP2" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="BQ2" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="BR2" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="BS2" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="BT2" s="6" t="s">
+        <v>100</v>
+      </c>
     </row>
-    <row r="3" spans="1:54">
+    <row r="3" spans="1:72">
       <c r="A3" s="3" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>12</v>
@@ -1000,41 +1215,43 @@
         <v>11</v>
       </c>
       <c r="P3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="R3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="S3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="S3" s="3"/>
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
-      <c r="Z3" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="Z3" s="3"/>
       <c r="AA3" s="3" t="s">
         <v>27</v>
       </c>
       <c r="AB3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AC3" s="3"/>
+      <c r="AC3" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="AD3" s="3"/>
       <c r="AE3" s="3"/>
       <c r="AF3" s="3"/>
       <c r="AG3" s="3"/>
       <c r="AH3" s="3"/>
       <c r="AI3" s="3"/>
-      <c r="AJ3" s="3" t="s">
+      <c r="AJ3" s="3"/>
+      <c r="AK3" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="AK3" s="3"/>
       <c r="AL3" s="3"/>
       <c r="AM3" s="3"/>
       <c r="AN3" s="3"/>
@@ -1043,31 +1260,83 @@
       <c r="AQ3" s="3"/>
       <c r="AR3" s="3"/>
       <c r="AS3" s="3"/>
-      <c r="AT3" s="4"/>
-      <c r="AU3" s="4" t="s">
+      <c r="AT3" s="3"/>
+      <c r="AU3" s="4"/>
+      <c r="AV3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AV3" s="4"/>
-      <c r="AW3" s="4" t="s">
-        <v>71</v>
-      </c>
+      <c r="AW3" s="4"/>
       <c r="AX3" s="4" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="AY3" s="4" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="AZ3" s="4" t="s">
         <v>27</v>
       </c>
       <c r="BA3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="BB3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="BB3" s="4" t="s">
-        <v>73</v>
+      <c r="BC3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="BD3" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="BE3" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF3" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="BG3" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="BH3" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="BJ3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="BK3" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="BL3" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="BM3" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="BN3" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="BO3" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="BP3" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="BQ3" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="BR3" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="BS3" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="BT3" s="4" t="s">
+        <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:54">
+    <row r="4" spans="1:72">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1114,7 +1383,7 @@
       <c r="AR4" s="2"/>
       <c r="AS4" s="2"/>
       <c r="AT4" s="2"/>
-      <c r="AU4" s="4"/>
+      <c r="AU4" s="2"/>
       <c r="AV4" s="4"/>
       <c r="AW4" s="4"/>
       <c r="AX4" s="4"/>
@@ -1122,8 +1391,26 @@
       <c r="AZ4" s="4"/>
       <c r="BA4" s="4"/>
       <c r="BB4" s="4"/>
+      <c r="BC4" s="4"/>
+      <c r="BD4" s="4"/>
+      <c r="BE4" s="4"/>
+      <c r="BF4" s="4"/>
+      <c r="BG4" s="4"/>
+      <c r="BH4" s="4"/>
+      <c r="BI4" s="4"/>
+      <c r="BJ4" s="4"/>
+      <c r="BK4" s="4"/>
+      <c r="BL4" s="4"/>
+      <c r="BM4" s="4"/>
+      <c r="BN4" s="4"/>
+      <c r="BO4" s="4"/>
+      <c r="BP4" s="4"/>
+      <c r="BQ4" s="4"/>
+      <c r="BR4" s="4"/>
+      <c r="BS4" s="4"/>
+      <c r="BT4" s="4"/>
     </row>
-    <row r="5" spans="1:54">
+    <row r="5" spans="1:72">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1170,7 +1457,7 @@
       <c r="AR5" s="2"/>
       <c r="AS5" s="2"/>
       <c r="AT5" s="2"/>
-      <c r="AU5" s="4"/>
+      <c r="AU5" s="2"/>
       <c r="AV5" s="4"/>
       <c r="AW5" s="4"/>
       <c r="AX5" s="4"/>
@@ -1178,15 +1465,26 @@
       <c r="AZ5" s="4"/>
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
+      <c r="BC5" s="4"/>
+      <c r="BD5" s="4"/>
+      <c r="BE5" s="4"/>
+      <c r="BF5" s="4"/>
+      <c r="BG5" s="4"/>
+      <c r="BH5" s="4"/>
+      <c r="BI5" s="4"/>
+      <c r="BJ5" s="4"/>
+      <c r="BK5" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="AU1:BB1"/>
+  <mergeCells count="8">
+    <mergeCell ref="BL1:BS1"/>
+    <mergeCell ref="BD1:BK1"/>
+    <mergeCell ref="AV1:BC1"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:L1"/>
-    <mergeCell ref="M1:S1"/>
-    <mergeCell ref="U1:AF1"/>
-    <mergeCell ref="AH1:AT1"/>
+    <mergeCell ref="M1:T1"/>
+    <mergeCell ref="V1:AG1"/>
+    <mergeCell ref="AI1:AU1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/TestData/FCCB_TBCL_data.xlsx
+++ b/src/main/resources/TestData/FCCB_TBCL_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liu-b\git\PageObjectModel\src\main\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F77D74A0-75F9-45C9-9B48-6FC0AC4BA217}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D8E762-8E65-4AEC-A6F1-1372317B383B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6945" yWindow="1515" windowWidth="14415" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="114">
   <si>
     <t>fbbs</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -448,7 +448,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2020-06-24</t>
+    <t>2020-06-25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-67549095-456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-67549095-455</t>
+  </si>
+  <si>
+    <t>G6200019984</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -845,8 +860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33FB4AF2-2C99-459C-9147-AD7590C3225D}">
   <dimension ref="A1:BT5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AU1" workbookViewId="0">
-      <selection activeCell="AY3" sqref="AY3"/>
+    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
+      <selection activeCell="AR13" sqref="AR13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75"/>
@@ -1249,14 +1264,16 @@
       <c r="AH3" s="3"/>
       <c r="AI3" s="3"/>
       <c r="AJ3" s="3"/>
-      <c r="AK3" s="3" t="s">
-        <v>55</v>
+      <c r="AK3" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="AL3" s="3"/>
       <c r="AM3" s="3"/>
       <c r="AN3" s="3"/>
       <c r="AO3" s="3"/>
-      <c r="AP3" s="3"/>
+      <c r="AP3" s="3" t="s">
+        <v>112</v>
+      </c>
       <c r="AQ3" s="3"/>
       <c r="AR3" s="3"/>
       <c r="AS3" s="3"/>
@@ -1337,78 +1354,160 @@
       </c>
     </row>
     <row r="4" spans="1:72">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="2"/>
-      <c r="AF4" s="2"/>
-      <c r="AG4" s="2"/>
-      <c r="AH4" s="2"/>
-      <c r="AI4" s="2"/>
-      <c r="AJ4" s="2"/>
-      <c r="AK4" s="2"/>
-      <c r="AL4" s="2"/>
-      <c r="AM4" s="2"/>
-      <c r="AN4" s="2"/>
-      <c r="AO4" s="2"/>
-      <c r="AP4" s="2"/>
-      <c r="AQ4" s="2"/>
-      <c r="AR4" s="2"/>
-      <c r="AS4" s="2"/>
-      <c r="AT4" s="2"/>
-      <c r="AU4" s="2"/>
-      <c r="AV4" s="4"/>
+      <c r="A4" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="3"/>
+      <c r="AF4" s="3"/>
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="3"/>
+      <c r="AI4" s="3"/>
+      <c r="AJ4" s="3"/>
+      <c r="AK4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL4" s="3"/>
+      <c r="AM4" s="3"/>
+      <c r="AN4" s="3"/>
+      <c r="AO4" s="3"/>
+      <c r="AP4" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AQ4" s="3"/>
+      <c r="AR4" s="3"/>
+      <c r="AS4" s="3"/>
+      <c r="AT4" s="3"/>
+      <c r="AU4" s="4"/>
+      <c r="AV4" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="AW4" s="4"/>
-      <c r="AX4" s="4"/>
-      <c r="AY4" s="4"/>
-      <c r="AZ4" s="4"/>
-      <c r="BA4" s="4"/>
-      <c r="BB4" s="4"/>
-      <c r="BC4" s="4"/>
-      <c r="BD4" s="4"/>
-      <c r="BE4" s="4"/>
-      <c r="BF4" s="4"/>
-      <c r="BG4" s="4"/>
-      <c r="BH4" s="4"/>
-      <c r="BI4" s="4"/>
-      <c r="BJ4" s="4"/>
-      <c r="BK4" s="4"/>
-      <c r="BL4" s="4"/>
-      <c r="BM4" s="4"/>
-      <c r="BN4" s="4"/>
-      <c r="BO4" s="4"/>
-      <c r="BP4" s="4"/>
-      <c r="BQ4" s="4"/>
-      <c r="BR4" s="4"/>
-      <c r="BS4" s="4"/>
-      <c r="BT4" s="4"/>
+      <c r="AX4" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AY4" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AZ4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="BA4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="BB4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="BC4" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="BD4" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="BE4" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF4" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="BG4" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="BH4" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI4" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="BJ4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="BK4" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="BL4" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="BM4" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="BN4" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="BO4" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="BP4" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="BQ4" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="BR4" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="BS4" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="BT4" s="4" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="5" spans="1:72">
       <c r="A5" s="2"/>
@@ -1446,9 +1545,9 @@
       <c r="AG5" s="2"/>
       <c r="AH5" s="2"/>
       <c r="AI5" s="2"/>
-      <c r="AJ5" s="2"/>
-      <c r="AK5" s="2"/>
-      <c r="AL5" s="2"/>
+      <c r="AJ5" s="3"/>
+      <c r="AK5" s="3"/>
+      <c r="AL5" s="3"/>
       <c r="AM5" s="2"/>
       <c r="AN5" s="2"/>
       <c r="AO5" s="2"/>

--- a/src/main/resources/TestData/FCCB_TBCL_data.xlsx
+++ b/src/main/resources/TestData/FCCB_TBCL_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liu-b\git\PageObjectModel\src\main\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D8E762-8E65-4AEC-A6F1-1372317B383B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6F267A-F40C-4BED-BDC4-95EFDEBD39D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1965" yWindow="4215" windowWidth="22560" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="122">
   <si>
     <t>fbbs</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -304,10 +304,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>风险类别信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>jqbm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -464,6 +460,42 @@
   </si>
   <si>
     <t>G6200019984</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标的信息-基本信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标的信息-险种信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hydl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hyxl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zzfwlx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -532,7 +564,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -555,12 +587,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -571,7 +640,14 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -858,10 +934,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33FB4AF2-2C99-459C-9147-AD7590C3225D}">
-  <dimension ref="A1:BT5"/>
+  <dimension ref="A1:BW5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
-      <selection activeCell="AR13" sqref="AR13"/>
+    <sheetView tabSelected="1" topLeftCell="AT1" workbookViewId="0">
+      <selection activeCell="BE4" sqref="BE4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75"/>
@@ -886,100 +962,105 @@
     <col min="25" max="25" width="16.625" style="1" customWidth="1"/>
     <col min="26" max="46" width="8.75" style="1"/>
     <col min="47" max="47" width="15.5" style="1" customWidth="1"/>
-    <col min="48" max="62" width="8.75" style="1"/>
-    <col min="63" max="63" width="26.75" style="1" customWidth="1"/>
-    <col min="64" max="16384" width="8.75" style="1"/>
+    <col min="48" max="65" width="8.75" style="1"/>
+    <col min="66" max="66" width="26.75" style="1" customWidth="1"/>
+    <col min="67" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:75">
+      <c r="A1" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9" t="s">
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
       <c r="U1" s="7"/>
-      <c r="V1" s="9" t="s">
+      <c r="V1" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="9"/>
-      <c r="AD1" s="9"/>
-      <c r="AE1" s="9"/>
-      <c r="AF1" s="9"/>
-      <c r="AG1" s="9"/>
+      <c r="W1" s="12"/>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="12"/>
+      <c r="Z1" s="12"/>
+      <c r="AA1" s="12"/>
+      <c r="AB1" s="12"/>
+      <c r="AC1" s="12"/>
+      <c r="AD1" s="12"/>
+      <c r="AE1" s="12"/>
+      <c r="AF1" s="12"/>
+      <c r="AG1" s="12"/>
       <c r="AH1" s="7"/>
-      <c r="AI1" s="9" t="s">
+      <c r="AI1" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="AJ1" s="9"/>
-      <c r="AK1" s="9"/>
-      <c r="AL1" s="9"/>
-      <c r="AM1" s="9"/>
-      <c r="AN1" s="9"/>
-      <c r="AO1" s="9"/>
-      <c r="AP1" s="9"/>
-      <c r="AQ1" s="9"/>
-      <c r="AR1" s="9"/>
-      <c r="AS1" s="9"/>
-      <c r="AT1" s="9"/>
-      <c r="AU1" s="9"/>
-      <c r="AV1" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="AW1" s="9"/>
-      <c r="AX1" s="9"/>
-      <c r="AY1" s="9"/>
-      <c r="AZ1" s="9"/>
-      <c r="BA1" s="9"/>
-      <c r="BB1" s="9"/>
-      <c r="BC1" s="9"/>
-      <c r="BD1" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="BE1" s="9"/>
-      <c r="BF1" s="9"/>
-      <c r="BG1" s="9"/>
-      <c r="BH1" s="9"/>
-      <c r="BI1" s="9"/>
-      <c r="BJ1" s="9"/>
-      <c r="BK1" s="9"/>
-      <c r="BL1" s="9"/>
-      <c r="BM1" s="9"/>
-      <c r="BN1" s="9"/>
-      <c r="BO1" s="9"/>
-      <c r="BP1" s="9"/>
-      <c r="BQ1" s="9"/>
-      <c r="BR1" s="9"/>
-      <c r="BS1" s="9"/>
-      <c r="BT1" s="8"/>
+      <c r="AJ1" s="12"/>
+      <c r="AK1" s="12"/>
+      <c r="AL1" s="12"/>
+      <c r="AM1" s="12"/>
+      <c r="AN1" s="12"/>
+      <c r="AO1" s="12"/>
+      <c r="AP1" s="12"/>
+      <c r="AQ1" s="12"/>
+      <c r="AR1" s="12"/>
+      <c r="AS1" s="12"/>
+      <c r="AT1" s="12"/>
+      <c r="AU1" s="12"/>
+      <c r="AV1" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="AW1" s="12"/>
+      <c r="AX1" s="12"/>
+      <c r="AY1" s="12"/>
+      <c r="AZ1" s="12"/>
+      <c r="BA1" s="12"/>
+      <c r="BB1" s="12"/>
+      <c r="BC1" s="12"/>
+      <c r="BD1" s="12"/>
+      <c r="BE1" s="12"/>
+      <c r="BF1" s="12"/>
+      <c r="BG1" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="BH1" s="12"/>
+      <c r="BI1" s="12"/>
+      <c r="BJ1" s="12"/>
+      <c r="BK1" s="12"/>
+      <c r="BL1" s="12"/>
+      <c r="BM1" s="12"/>
+      <c r="BN1" s="12"/>
+      <c r="BO1" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="BP1" s="10"/>
+      <c r="BQ1" s="10"/>
+      <c r="BR1" s="10"/>
+      <c r="BS1" s="10"/>
+      <c r="BT1" s="10"/>
+      <c r="BU1" s="10"/>
+      <c r="BV1" s="10"/>
+      <c r="BW1" s="11"/>
     </row>
-    <row r="2" spans="1:72">
+    <row r="2" spans="1:75">
       <c r="A2" s="5" t="s">
         <v>13</v>
       </c>
@@ -1026,7 +1107,7 @@
         <v>2</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q2" s="5" t="s">
         <v>3</v>
@@ -1146,60 +1227,69 @@
         <v>69</v>
       </c>
       <c r="BD2" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="BE2" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="BF2" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="BG2" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="BH2" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="BE2" s="6" t="s">
+      <c r="BI2" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="BF2" s="6" t="s">
+      <c r="BJ2" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="BG2" s="6" t="s">
+      <c r="BK2" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="BH2" s="6" t="s">
+      <c r="BL2" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="BI2" s="6" t="s">
+      <c r="BM2" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="BJ2" s="6" t="s">
+      <c r="BN2" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="BK2" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="BL2" s="6" t="s">
+      <c r="BO2" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="BP2" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="BM2" s="6" t="s">
+      <c r="BQ2" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="BN2" s="6" t="s">
+      <c r="BR2" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="BO2" s="6" t="s">
+      <c r="BS2" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="BP2" s="6" t="s">
+      <c r="BT2" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="BQ2" s="6" t="s">
+      <c r="BU2" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="BR2" s="6" t="s">
+      <c r="BV2" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="BS2" s="6" t="s">
+      <c r="BW2" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="BT2" s="6" t="s">
-        <v>100</v>
-      </c>
     </row>
-    <row r="3" spans="1:72">
+    <row r="3" spans="1:75">
       <c r="A3" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>12</v>
@@ -1265,14 +1355,14 @@
       <c r="AI3" s="3"/>
       <c r="AJ3" s="3"/>
       <c r="AK3" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AL3" s="3"/>
       <c r="AM3" s="3"/>
       <c r="AN3" s="3"/>
       <c r="AO3" s="3"/>
       <c r="AP3" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AQ3" s="3"/>
       <c r="AR3" s="3"/>
@@ -1284,7 +1374,7 @@
       </c>
       <c r="AW3" s="4"/>
       <c r="AX3" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AY3" s="4" t="s">
         <v>70</v>
@@ -1302,63 +1392,72 @@
         <v>71</v>
       </c>
       <c r="BD3" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="BE3" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="BF3" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG3" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="BH3" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="BE3" s="4" t="s">
+      <c r="BI3" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="BJ3" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="BK3" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="BF3" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="BG3" s="4" t="s">
+      <c r="BL3" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="BN3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="BO3" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="BP3" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="BQ3" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="BR3" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="BS3" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="BT3" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU3" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="BV3" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="BW3" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:75">
+      <c r="A4" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="BH3" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="BI3" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="BJ3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="BK3" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="BL3" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="BM3" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="BN3" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="BO3" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="BP3" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="BQ3" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="BR3" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="BS3" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="BT3" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="4" spans="1:72">
-      <c r="A4" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>61</v>
@@ -1428,7 +1527,7 @@
       <c r="AN4" s="3"/>
       <c r="AO4" s="3"/>
       <c r="AP4" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AQ4" s="3"/>
       <c r="AR4" s="3"/>
@@ -1440,7 +1539,7 @@
       </c>
       <c r="AW4" s="4"/>
       <c r="AX4" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AY4" s="4" t="s">
         <v>70</v>
@@ -1457,59 +1556,68 @@
       <c r="BC4" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="BD4" s="4" t="s">
+      <c r="BD4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="BE4" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="BF4" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="BG4" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="BH4" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="BE4" s="4" t="s">
+      <c r="BI4" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="BJ4" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="BK4" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="BF4" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="BG4" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="BH4" s="4" t="s">
+      <c r="BL4" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="BI4" s="4" t="s">
+      <c r="BM4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="BN4" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="BJ4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="BK4" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="BL4" s="4" t="s">
+      <c r="BO4" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="BP4" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="BM4" s="4" t="s">
+      <c r="BQ4" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="BN4" s="4" t="s">
+      <c r="BR4" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="BS4" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="BO4" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="BP4" s="4" t="s">
+      <c r="BT4" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="BQ4" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="BR4" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="BS4" s="4" t="s">
+      <c r="BU4" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="BV4" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="BW4" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="BT4" s="4" t="s">
-        <v>108</v>
-      </c>
     </row>
-    <row r="5" spans="1:72">
+    <row r="5" spans="1:75">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1573,12 +1681,15 @@
       <c r="BI5" s="4"/>
       <c r="BJ5" s="4"/>
       <c r="BK5" s="4"/>
+      <c r="BL5" s="4"/>
+      <c r="BM5" s="4"/>
+      <c r="BN5" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="BL1:BS1"/>
-    <mergeCell ref="BD1:BK1"/>
-    <mergeCell ref="AV1:BC1"/>
+    <mergeCell ref="BO1:BW1"/>
+    <mergeCell ref="BG1:BN1"/>
+    <mergeCell ref="AV1:BF1"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:L1"/>
     <mergeCell ref="M1:T1"/>

--- a/src/main/resources/TestData/FCCB_TBCL_data.xlsx
+++ b/src/main/resources/TestData/FCCB_TBCL_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liu-b\git\PageObjectModel\src\main\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6F267A-F40C-4BED-BDC4-95EFDEBD39D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B4D2DC-581D-4DA0-9BAD-E60BF0BEA914}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1965" yWindow="4215" windowWidth="22560" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="126">
   <si>
     <t>fbbs</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -496,6 +496,22 @@
   </si>
   <si>
     <t>zzfwlx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>message</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>screenshot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>proposalNumber</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -934,10 +950,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33FB4AF2-2C99-459C-9147-AD7590C3225D}">
-  <dimension ref="A1:BW5"/>
+  <dimension ref="A1:BZ5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AT1" workbookViewId="0">
-      <selection activeCell="BE4" sqref="BE4"/>
+    <sheetView tabSelected="1" topLeftCell="BH1" workbookViewId="0">
+      <selection activeCell="BX5" sqref="BX5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75"/>
@@ -964,10 +980,14 @@
     <col min="47" max="47" width="15.5" style="1" customWidth="1"/>
     <col min="48" max="65" width="8.75" style="1"/>
     <col min="66" max="66" width="26.75" style="1" customWidth="1"/>
-    <col min="67" max="16384" width="8.75" style="1"/>
+    <col min="67" max="75" width="8.75" style="1"/>
+    <col min="76" max="76" width="17.125" style="1" customWidth="1"/>
+    <col min="77" max="77" width="16.5" style="1" customWidth="1"/>
+    <col min="78" max="78" width="25" style="1" customWidth="1"/>
+    <col min="79" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:75">
+    <row r="1" spans="1:78">
       <c r="A1" s="12" t="s">
         <v>56</v>
       </c>
@@ -1059,8 +1079,13 @@
       <c r="BU1" s="10"/>
       <c r="BV1" s="10"/>
       <c r="BW1" s="11"/>
+      <c r="BX1" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="BY1" s="10"/>
+      <c r="BZ1" s="10"/>
     </row>
-    <row r="2" spans="1:75">
+    <row r="2" spans="1:78">
       <c r="A2" s="5" t="s">
         <v>13</v>
       </c>
@@ -1286,8 +1311,17 @@
       <c r="BW2" s="6" t="s">
         <v>99</v>
       </c>
+      <c r="BX2" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="BY2" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="BZ2" s="6" t="s">
+        <v>124</v>
+      </c>
     </row>
-    <row r="3" spans="1:75">
+    <row r="3" spans="1:78">
       <c r="A3" s="3" t="s">
         <v>88</v>
       </c>
@@ -1451,8 +1485,13 @@
       <c r="BW3" s="4" t="s">
         <v>107</v>
       </c>
+      <c r="BX3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="BY3" s="4"/>
+      <c r="BZ3" s="4"/>
     </row>
-    <row r="4" spans="1:75">
+    <row r="4" spans="1:78">
       <c r="A4" s="3" t="s">
         <v>88</v>
       </c>
@@ -1616,8 +1655,11 @@
       <c r="BW4" s="4" t="s">
         <v>107</v>
       </c>
+      <c r="BX4" s="4"/>
+      <c r="BY4" s="4"/>
+      <c r="BZ4" s="4"/>
     </row>
-    <row r="5" spans="1:75">
+    <row r="5" spans="1:78">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1684,9 +1726,22 @@
       <c r="BL5" s="4"/>
       <c r="BM5" s="4"/>
       <c r="BN5" s="4"/>
+      <c r="BO5" s="4"/>
+      <c r="BP5" s="4"/>
+      <c r="BQ5" s="4"/>
+      <c r="BR5" s="4"/>
+      <c r="BS5" s="4"/>
+      <c r="BT5" s="4"/>
+      <c r="BU5" s="4"/>
+      <c r="BV5" s="4"/>
+      <c r="BW5" s="4"/>
+      <c r="BX5" s="4"/>
+      <c r="BY5" s="4"/>
+      <c r="BZ5" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="BX1:BZ1"/>
     <mergeCell ref="BO1:BW1"/>
     <mergeCell ref="BG1:BN1"/>
     <mergeCell ref="AV1:BF1"/>

--- a/src/main/resources/TestData/FCCB_TBCL_data.xlsx
+++ b/src/main/resources/TestData/FCCB_TBCL_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liu-b\git\PageObjectModel\src\main\resources\TestData\"/>
     </mc:Choice>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="131">
   <si>
     <t>fbbs</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -513,12 +513,28 @@
   <si>
     <t>proposalNumber</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06201890101202000000000145</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>06201890101202000000000146</t>
+  </si>
+  <si>
+    <t>C:\Users\liu-b\git\PageObjectModel\screenshots\test\FCCB_TB_JCX_2_未知弹窗_20200630111100664.png</t>
+  </si>
+  <si>
+    <t>未知弹窗_投保人 李宇轩 的社会统一信用代码错误，请修改！</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="5">
     <font>
       <sz val="12"/>
@@ -958,33 +974,33 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="19.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.25" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.625" style="1" customWidth="1"/>
-    <col min="10" max="12" width="14.75" style="1" customWidth="1"/>
-    <col min="13" max="13" width="18.25" style="1" customWidth="1"/>
-    <col min="14" max="16" width="8.75" style="1"/>
-    <col min="17" max="17" width="20.5" style="1" customWidth="1"/>
-    <col min="18" max="19" width="19.5" style="1" customWidth="1"/>
-    <col min="20" max="20" width="8.75" style="1"/>
-    <col min="21" max="21" width="12.625" style="1" customWidth="1"/>
-    <col min="22" max="24" width="8.75" style="1"/>
-    <col min="25" max="25" width="16.625" style="1" customWidth="1"/>
-    <col min="26" max="46" width="8.75" style="1"/>
-    <col min="47" max="47" width="15.5" style="1" customWidth="1"/>
-    <col min="48" max="65" width="8.75" style="1"/>
-    <col min="66" max="66" width="26.75" style="1" customWidth="1"/>
-    <col min="67" max="75" width="8.75" style="1"/>
-    <col min="76" max="76" width="17.125" style="1" customWidth="1"/>
-    <col min="77" max="77" width="16.5" style="1" customWidth="1"/>
-    <col min="78" max="78" width="25" style="1" customWidth="1"/>
-    <col min="79" max="16384" width="8.75" style="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="19.125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="18.75" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="33.125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="14.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="9.5" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="12.25" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="16.375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="8.25" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="1" width="11.625" collapsed="true"/>
+    <col min="10" max="12" customWidth="true" style="1" width="14.75" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="1" width="18.25" collapsed="true"/>
+    <col min="14" max="16" style="1" width="8.75" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="1" width="20.5" collapsed="true"/>
+    <col min="18" max="19" customWidth="true" style="1" width="19.5" collapsed="true"/>
+    <col min="20" max="20" style="1" width="8.75" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" style="1" width="12.625" collapsed="true"/>
+    <col min="22" max="24" style="1" width="8.75" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" style="1" width="16.625" collapsed="true"/>
+    <col min="26" max="46" style="1" width="8.75" collapsed="true"/>
+    <col min="47" max="47" customWidth="true" style="1" width="15.5" collapsed="true"/>
+    <col min="48" max="65" style="1" width="8.75" collapsed="true"/>
+    <col min="66" max="66" customWidth="true" style="1" width="26.75" collapsed="true"/>
+    <col min="67" max="75" style="1" width="8.75" collapsed="true"/>
+    <col min="76" max="76" customWidth="true" style="1" width="17.125" collapsed="true"/>
+    <col min="77" max="77" customWidth="true" style="1" width="16.5" collapsed="true"/>
+    <col min="78" max="78" customWidth="true" style="1" width="25.0" collapsed="true"/>
+    <col min="79" max="16384" style="1" width="8.75" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:78">
@@ -1486,10 +1502,14 @@
         <v>107</v>
       </c>
       <c r="BX3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="BY3" s="4"/>
-      <c r="BZ3" s="4"/>
+        <v>126</v>
+      </c>
+      <c r="BY3" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="BZ3" s="4" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="4" spans="1:78">
       <c r="A4" s="3" t="s">
@@ -1655,9 +1675,15 @@
       <c r="BW4" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="BX4" s="4"/>
-      <c r="BY4" s="4"/>
-      <c r="BZ4" s="4"/>
+      <c r="BX4" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="BY4" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="BZ4" s="4" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="5" spans="1:78">
       <c r="A5" s="2"/>
